--- a/results/mp/deberta/corona/confidence/210/stop-words-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-masking-0.5/avg_0.004_scores.xlsx
@@ -115,15 +115,15 @@
     <t>support</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>community</t>
   </si>
   <si>
@@ -136,13 +136,13 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>hope</t>
   </si>
   <si>
     <t>data</t>
@@ -1416,25 +1416,25 @@
         <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6926406926406926</v>
+        <v>0.68</v>
       </c>
       <c r="L20">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="N20">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O20">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1442,25 +1442,25 @@
         <v>34</v>
       </c>
       <c r="K21">
-        <v>0.68</v>
+        <v>0.6703296703296703</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="N21">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O21">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1468,25 +1468,25 @@
         <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6703296703296703</v>
+        <v>0.6694560669456067</v>
       </c>
       <c r="L22">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="M22">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="N22">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>30</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1598,25 +1598,25 @@
         <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5853658536585366</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L27">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="N27">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O27">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>136</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1624,25 +1624,25 @@
         <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5813953488372093</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M28">
+        <v>38</v>
+      </c>
+      <c r="N28">
+        <v>0.95</v>
+      </c>
+      <c r="O28">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28">
         <v>27</v>
-      </c>
-      <c r="N28">
-        <v>0.93</v>
-      </c>
-      <c r="O28">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P28" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q28">
-        <v>18</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1650,25 +1650,25 @@
         <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5714285714285714</v>
+        <v>0.5647058823529412</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="N29">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>27</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="10:17">
